--- a/stm-unity/Assets/Editor/Localization/SportsTeamManagerScenarioLocalization.xlsx
+++ b/stm-unity/Assets/Editor/Localization/SportsTeamManagerScenarioLocalization.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felix\Documents\Projects\RAGE\SportsTeamManager\stm-unity\Assets\Editor\Localization\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="18250" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="16440" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Episode 1" sheetId="1" r:id="rId1"/>
@@ -30,7 +25,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0" shapeId="0">
+    <comment ref="A2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -54,7 +49,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0" shapeId="0">
+    <comment ref="A2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -78,7 +73,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="B10" authorId="0" shapeId="0">
+    <comment ref="B10" authorId="0">
       <text>
         <r>
           <rPr>
@@ -92,7 +87,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C10" authorId="0" shapeId="0">
+    <comment ref="C10" authorId="0">
       <text>
         <r>
           <rPr>
@@ -106,7 +101,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B22" authorId="0" shapeId="0">
+    <comment ref="B22" authorId="0">
       <text>
         <r>
           <rPr>
@@ -120,7 +115,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C22" authorId="0" shapeId="0">
+    <comment ref="C22" authorId="0">
       <text>
         <r>
           <rPr>
@@ -134,7 +129,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B30" authorId="0" shapeId="0">
+    <comment ref="B30" authorId="0">
       <text>
         <r>
           <rPr>
@@ -148,7 +143,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C30" authorId="0" shapeId="0">
+    <comment ref="C30" authorId="0">
       <text>
         <r>
           <rPr>
@@ -172,7 +167,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0" shapeId="0">
+    <comment ref="A2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -186,7 +181,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B2" authorId="0" shapeId="0">
+    <comment ref="B2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -200,7 +195,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C2" authorId="0" shapeId="0">
+    <comment ref="C2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -214,7 +209,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C13" authorId="0" shapeId="0">
+    <comment ref="C13" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2980,10 +2975,10 @@
     <t>Neutral</t>
   </si>
   <si>
-    <t>StronglyDisagree</t>
-  </si>
-  <si>
-    <t>StronglyAgree</t>
+    <t>StrongAgree</t>
+  </si>
+  <si>
+    <t>StrongDisagree</t>
   </si>
 </sst>
 </file>
@@ -3286,6 +3281,54 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>971550</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="6353175" cy="6353175"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3358,6 +3401,54 @@
         <a:xfrm>
           <a:off x="0" y="0"/>
           <a:ext cx="6350000" cy="6350000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="6353175" cy="6353175"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3478,6 +3569,54 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>1171575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="AutoShape 7"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="6353175" cy="6353175"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3550,6 +3689,54 @@
         <a:xfrm>
           <a:off x="0" y="0"/>
           <a:ext cx="6350000" cy="6350000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2438400</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="AutoShape 5"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="6353175" cy="6353175"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3832,7 +4019,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3847,13 +4034,13 @@
       <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.26953125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="44.81640625" style="33" customWidth="1"/>
-    <col min="2" max="2" width="35.81640625" style="33" customWidth="1"/>
-    <col min="3" max="3" width="62.81640625" style="33" customWidth="1"/>
-    <col min="4" max="19" width="14.453125" style="33" customWidth="1"/>
-    <col min="20" max="16384" width="17.26953125" style="33"/>
+    <col min="1" max="1" width="44.85546875" style="33" customWidth="1"/>
+    <col min="2" max="2" width="35.85546875" style="33" customWidth="1"/>
+    <col min="3" max="3" width="62.85546875" style="33" customWidth="1"/>
+    <col min="4" max="19" width="14.42578125" style="33" customWidth="1"/>
+    <col min="20" max="16384" width="17.28515625" style="33"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" customHeight="1">
@@ -4043,7 +4230,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="12.5">
+    <row r="18" spans="1:3" ht="12.75">
       <c r="A18" s="32" t="s">
         <v>92</v>
       </c>
@@ -7210,14 +7397,14 @@
       <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.26953125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="48.08984375" customWidth="1"/>
-    <col min="2" max="2" width="37.08984375" customWidth="1"/>
+    <col min="1" max="1" width="48.140625" customWidth="1"/>
+    <col min="2" max="2" width="37.140625" customWidth="1"/>
     <col min="3" max="3" width="37" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="12.5">
+    <row r="1" spans="1:3" ht="12.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7228,7 +7415,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="37.5">
+    <row r="2" spans="1:3" ht="38.25">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -7239,7 +7426,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="12.5">
+    <row r="3" spans="1:3" ht="12.75">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -7250,7 +7437,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="12.5">
+    <row r="4" spans="1:3" ht="12.75">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
@@ -7261,7 +7448,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="25">
+    <row r="5" spans="1:3" ht="25.5">
       <c r="A5" s="7" t="s">
         <v>14</v>
       </c>
@@ -7272,7 +7459,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="25">
+    <row r="6" spans="1:3" ht="25.5">
       <c r="A6" s="2" t="s">
         <v>25</v>
       </c>
@@ -7283,7 +7470,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="12.5">
+    <row r="7" spans="1:3" ht="12.75">
       <c r="A7" s="3" t="s">
         <v>31</v>
       </c>
@@ -7294,7 +7481,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="12.5">
+    <row r="8" spans="1:3" ht="12.75">
       <c r="A8" s="3" t="s">
         <v>44</v>
       </c>
@@ -7305,7 +7492,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="25">
+    <row r="9" spans="1:3" ht="25.5">
       <c r="A9" s="3" t="s">
         <v>50</v>
       </c>
@@ -7316,7 +7503,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="12.5">
+    <row r="10" spans="1:3" ht="12.75">
       <c r="A10" s="3" t="s">
         <v>56</v>
       </c>
@@ -7327,7 +7514,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="12.5">
+    <row r="11" spans="1:3" ht="12.75">
       <c r="A11" s="8" t="s">
         <v>63</v>
       </c>
@@ -7338,7 +7525,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="12.5">
+    <row r="12" spans="1:3" ht="12.75">
       <c r="A12" s="3" t="s">
         <v>70</v>
       </c>
@@ -7349,7 +7536,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="12.5">
+    <row r="13" spans="1:3" ht="12.75">
       <c r="A13" s="8" t="s">
         <v>76</v>
       </c>
@@ -7360,7 +7547,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="12.5">
+    <row r="14" spans="1:3" ht="12.75">
       <c r="A14" s="8" t="s">
         <v>83</v>
       </c>
@@ -7371,7 +7558,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="12.5">
+    <row r="15" spans="1:3" ht="12.75">
       <c r="A15" s="3" t="s">
         <v>90</v>
       </c>
@@ -7382,7 +7569,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="25">
+    <row r="16" spans="1:3" ht="25.5">
       <c r="A16" s="3" t="s">
         <v>97</v>
       </c>
@@ -7393,7 +7580,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="25">
+    <row r="17" spans="1:3" ht="25.5">
       <c r="A17" s="8" t="s">
         <v>103</v>
       </c>
@@ -7404,7 +7591,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="25">
+    <row r="18" spans="1:3" ht="25.5">
       <c r="A18" s="8" t="s">
         <v>108</v>
       </c>
@@ -7415,7 +7602,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="12.5">
+    <row r="19" spans="1:3" ht="12.75">
       <c r="A19" s="3" t="s">
         <v>113</v>
       </c>
@@ -7426,7 +7613,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="25">
+    <row r="20" spans="1:3" ht="25.5">
       <c r="A20" s="3" t="s">
         <v>125</v>
       </c>
@@ -7437,7 +7624,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="12.5">
+    <row r="21" spans="1:3" ht="12.75">
       <c r="A21" s="3" t="s">
         <v>130</v>
       </c>
@@ -7448,7 +7635,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="25">
+    <row r="22" spans="1:3" ht="25.5">
       <c r="A22" s="3" t="s">
         <v>137</v>
       </c>
@@ -7459,7 +7646,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="12.5">
+    <row r="23" spans="1:3" ht="12.75">
       <c r="A23" s="3" t="s">
         <v>142</v>
       </c>
@@ -7470,7 +7657,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="25">
+    <row r="24" spans="1:3" ht="25.5">
       <c r="A24" s="3" t="s">
         <v>147</v>
       </c>
@@ -7481,7 +7668,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="25">
+    <row r="25" spans="1:3" ht="25.5">
       <c r="A25" s="3" t="s">
         <v>151</v>
       </c>
@@ -7492,7 +7679,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="25">
+    <row r="26" spans="1:3" ht="25.5">
       <c r="A26" s="3" t="s">
         <v>153</v>
       </c>
@@ -7503,7 +7690,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="25">
+    <row r="27" spans="1:3" ht="25.5">
       <c r="A27" s="3" t="s">
         <v>158</v>
       </c>
@@ -7514,7 +7701,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="12.5">
+    <row r="28" spans="1:3" ht="12.75">
       <c r="A28" s="3" t="s">
         <v>163</v>
       </c>
@@ -7525,7 +7712,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="37.5">
+    <row r="29" spans="1:3" ht="38.25">
       <c r="A29" s="8" t="s">
         <v>168</v>
       </c>
@@ -7536,7 +7723,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="12.5">
+    <row r="30" spans="1:3" ht="12.75">
       <c r="A30" s="8" t="s">
         <v>173</v>
       </c>
@@ -7547,7 +7734,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="12.5">
+    <row r="31" spans="1:3" ht="12.75">
       <c r="A31" s="3" t="s">
         <v>178</v>
       </c>
@@ -7558,7 +7745,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="12.5">
+    <row r="32" spans="1:3" ht="12.75">
       <c r="A32" s="3" t="s">
         <v>183</v>
       </c>
@@ -7569,7 +7756,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="37.5">
+    <row r="33" spans="1:3" ht="38.25">
       <c r="A33" s="8" t="s">
         <v>189</v>
       </c>
@@ -7580,7 +7767,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="12.5">
+    <row r="34" spans="1:3" ht="12.75">
       <c r="A34" s="8" t="s">
         <v>192</v>
       </c>
@@ -7591,7 +7778,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="12.5">
+    <row r="35" spans="1:3" ht="12.75">
       <c r="A35" s="3" t="s">
         <v>196</v>
       </c>
@@ -7602,7 +7789,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="12.5">
+    <row r="36" spans="1:3" ht="12.75">
       <c r="A36" s="3" t="s">
         <v>201</v>
       </c>
@@ -7613,7 +7800,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="12.5">
+    <row r="37" spans="1:3" ht="12.75">
       <c r="A37" s="3" t="s">
         <v>206</v>
       </c>
@@ -7624,7 +7811,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="25">
+    <row r="38" spans="1:3" ht="25.5">
       <c r="A38" s="3" t="s">
         <v>211</v>
       </c>
@@ -7635,7 +7822,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="12.5">
+    <row r="39" spans="1:3" ht="12.75">
       <c r="A39" s="3" t="s">
         <v>215</v>
       </c>
@@ -7646,7 +7833,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="12.5">
+    <row r="40" spans="1:3" ht="12.75">
       <c r="A40" s="3" t="s">
         <v>221</v>
       </c>
@@ -7657,7 +7844,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="25">
+    <row r="41" spans="1:3" ht="25.5">
       <c r="A41" s="3" t="s">
         <v>226</v>
       </c>
@@ -7668,7 +7855,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="12.5">
+    <row r="42" spans="1:3" ht="12.75">
       <c r="A42" s="3" t="s">
         <v>229</v>
       </c>
@@ -7695,14 +7882,14 @@
       <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.26953125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="52.26953125" customWidth="1"/>
-    <col min="2" max="2" width="39.453125" customWidth="1"/>
+    <col min="1" max="1" width="52.28515625" customWidth="1"/>
+    <col min="2" max="2" width="39.42578125" customWidth="1"/>
     <col min="3" max="3" width="37" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="12.5">
+    <row r="1" spans="1:3" ht="12.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7713,7 +7900,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="25">
+    <row r="2" spans="1:3" ht="25.5">
       <c r="A2" s="8" t="s">
         <v>232</v>
       </c>
@@ -7724,7 +7911,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="25">
+    <row r="3" spans="1:3" ht="25.5">
       <c r="A3" s="2" t="s">
         <v>235</v>
       </c>
@@ -7735,7 +7922,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="25">
+    <row r="4" spans="1:3" ht="25.5">
       <c r="A4" s="2" t="s">
         <v>238</v>
       </c>
@@ -7746,7 +7933,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="25">
+    <row r="5" spans="1:3" ht="25.5">
       <c r="A5" s="7" t="s">
         <v>241</v>
       </c>
@@ -7757,7 +7944,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="25">
+    <row r="6" spans="1:3" ht="25.5">
       <c r="A6" s="2" t="s">
         <v>244</v>
       </c>
@@ -7768,7 +7955,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="25">
+    <row r="7" spans="1:3" ht="25.5">
       <c r="A7" s="7" t="s">
         <v>247</v>
       </c>
@@ -7779,7 +7966,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="25">
+    <row r="8" spans="1:3" ht="25.5">
       <c r="A8" s="7" t="s">
         <v>250</v>
       </c>
@@ -7790,7 +7977,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="25">
+    <row r="9" spans="1:3" ht="25.5">
       <c r="A9" s="7" t="s">
         <v>253</v>
       </c>
@@ -7801,7 +7988,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="25">
+    <row r="10" spans="1:3" ht="25.5">
       <c r="A10" s="7" t="s">
         <v>255</v>
       </c>
@@ -7812,7 +7999,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="25">
+    <row r="11" spans="1:3" ht="25.5">
       <c r="A11" s="2" t="s">
         <v>258</v>
       </c>
@@ -7823,7 +8010,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="25">
+    <row r="12" spans="1:3" ht="25.5">
       <c r="A12" s="2" t="s">
         <v>261</v>
       </c>
@@ -7834,7 +8021,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="25">
+    <row r="13" spans="1:3" ht="25.5">
       <c r="A13" s="2" t="s">
         <v>264</v>
       </c>
@@ -7845,7 +8032,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="12.5">
+    <row r="14" spans="1:3" ht="12.75">
       <c r="A14" s="2" t="s">
         <v>267</v>
       </c>
@@ -7856,7 +8043,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="25">
+    <row r="15" spans="1:3" ht="25.5">
       <c r="A15" s="7" t="s">
         <v>270</v>
       </c>
@@ -7867,7 +8054,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="50">
+    <row r="16" spans="1:3" ht="51">
       <c r="A16" s="7" t="s">
         <v>273</v>
       </c>
@@ -7878,7 +8065,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="87.5">
+    <row r="17" spans="1:3" ht="102">
       <c r="A17" s="2" t="s">
         <v>276</v>
       </c>
@@ -7889,7 +8076,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="37.5">
+    <row r="18" spans="1:3" ht="38.25">
       <c r="A18" s="7" t="s">
         <v>279</v>
       </c>
@@ -7900,7 +8087,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="12.5">
+    <row r="19" spans="1:3" ht="12.75">
       <c r="A19" s="7" t="s">
         <v>282</v>
       </c>
@@ -7911,7 +8098,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="25">
+    <row r="20" spans="1:3" ht="25.5">
       <c r="A20" s="7" t="s">
         <v>285</v>
       </c>
@@ -7922,7 +8109,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="12.5">
+    <row r="21" spans="1:3" ht="12.75">
       <c r="A21" s="7" t="s">
         <v>288</v>
       </c>
@@ -7933,7 +8120,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="25">
+    <row r="22" spans="1:3" ht="38.25">
       <c r="A22" s="7" t="s">
         <v>291</v>
       </c>
@@ -7944,7 +8131,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="12.5">
+    <row r="23" spans="1:3" ht="12.75">
       <c r="A23" s="7" t="s">
         <v>294</v>
       </c>
@@ -7955,7 +8142,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="37.5">
+    <row r="24" spans="1:3" ht="38.25">
       <c r="A24" s="7" t="s">
         <v>297</v>
       </c>
@@ -7966,7 +8153,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="25">
+    <row r="25" spans="1:3" ht="25.5">
       <c r="A25" s="7" t="s">
         <v>300</v>
       </c>
@@ -7977,7 +8164,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="12.5">
+    <row r="26" spans="1:3" ht="12.75">
       <c r="A26" s="7" t="s">
         <v>303</v>
       </c>
@@ -7988,7 +8175,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="25">
+    <row r="27" spans="1:3" ht="25.5">
       <c r="A27" s="2" t="s">
         <v>306</v>
       </c>
@@ -7999,7 +8186,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="12.5">
+    <row r="28" spans="1:3" ht="12.75">
       <c r="A28" s="2" t="s">
         <v>309</v>
       </c>
@@ -8010,7 +8197,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="12.5">
+    <row r="29" spans="1:3" ht="12.75">
       <c r="A29" s="2" t="s">
         <v>312</v>
       </c>
@@ -8021,7 +8208,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="12.5">
+    <row r="30" spans="1:3" ht="12.75">
       <c r="A30" s="2" t="s">
         <v>314</v>
       </c>
@@ -8032,7 +8219,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="37.5">
+    <row r="31" spans="1:3" ht="38.25">
       <c r="A31" s="7" t="s">
         <v>317</v>
       </c>
@@ -8043,7 +8230,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="50">
+    <row r="32" spans="1:3" ht="51">
       <c r="A32" s="7" t="s">
         <v>320</v>
       </c>
@@ -8054,7 +8241,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="50">
+    <row r="33" spans="1:3" ht="51">
       <c r="A33" s="2" t="s">
         <v>323</v>
       </c>
@@ -8065,7 +8252,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="37.5">
+    <row r="34" spans="1:3" ht="38.25">
       <c r="A34" s="7" t="s">
         <v>326</v>
       </c>
@@ -8076,7 +8263,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="12.5">
+    <row r="35" spans="1:3" ht="12.75">
       <c r="A35" s="7" t="s">
         <v>329</v>
       </c>
@@ -8087,7 +8274,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="25">
+    <row r="36" spans="1:3" ht="25.5">
       <c r="A36" s="7" t="s">
         <v>332</v>
       </c>
@@ -8098,7 +8285,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="25">
+    <row r="37" spans="1:3" ht="25.5">
       <c r="A37" s="7" t="s">
         <v>335</v>
       </c>
@@ -8109,7 +8296,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="37.5">
+    <row r="38" spans="1:3" ht="38.25">
       <c r="A38" s="7" t="s">
         <v>338</v>
       </c>
@@ -8120,7 +8307,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="12.5">
+    <row r="39" spans="1:3" ht="12.75">
       <c r="A39" s="7" t="s">
         <v>341</v>
       </c>
@@ -8131,7 +8318,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="12.5">
+    <row r="40" spans="1:3" ht="12.75">
       <c r="A40" s="7" t="s">
         <v>344</v>
       </c>
@@ -8142,7 +8329,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="12.5">
+    <row r="41" spans="1:3" ht="12.75">
       <c r="A41" s="7" t="s">
         <v>347</v>
       </c>
@@ -8153,7 +8340,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="12.5">
+    <row r="42" spans="1:3" ht="12.75">
       <c r="A42" s="7" t="s">
         <v>350</v>
       </c>
@@ -8180,14 +8367,14 @@
       <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.26953125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="58.7265625" customWidth="1"/>
+    <col min="1" max="1" width="58.7109375" customWidth="1"/>
     <col min="2" max="2" width="37" customWidth="1"/>
-    <col min="3" max="3" width="41.08984375" customWidth="1"/>
+    <col min="3" max="3" width="41.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="12.5">
+    <row r="1" spans="1:3" ht="12.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8198,7 +8385,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="25">
+    <row r="2" spans="1:3" ht="25.5">
       <c r="A2" s="8" t="s">
         <v>429</v>
       </c>
@@ -8209,7 +8396,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="12.5">
+    <row r="3" spans="1:3" ht="12.75">
       <c r="A3" s="8" t="s">
         <v>432</v>
       </c>
@@ -8220,7 +8407,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="25">
+    <row r="4" spans="1:3" ht="25.5">
       <c r="A4" s="8" t="s">
         <v>435</v>
       </c>
@@ -8231,7 +8418,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="12.5">
+    <row r="5" spans="1:3" ht="12.75">
       <c r="A5" s="3" t="s">
         <v>438</v>
       </c>
@@ -8242,7 +8429,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="12.5">
+    <row r="6" spans="1:3" ht="12.75">
       <c r="A6" s="8" t="s">
         <v>441</v>
       </c>
@@ -8253,7 +8440,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="25">
+    <row r="7" spans="1:3" ht="25.5">
       <c r="A7" s="3" t="s">
         <v>444</v>
       </c>
@@ -8264,7 +8451,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="25">
+    <row r="8" spans="1:3" ht="25.5">
       <c r="A8" s="3" t="s">
         <v>447</v>
       </c>
@@ -8275,7 +8462,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="25">
+    <row r="9" spans="1:3" ht="25.5">
       <c r="A9" s="3" t="s">
         <v>449</v>
       </c>
@@ -8286,7 +8473,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="25">
+    <row r="10" spans="1:3" ht="25.5">
       <c r="A10" s="3" t="s">
         <v>452</v>
       </c>
@@ -8297,7 +8484,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="25">
+    <row r="11" spans="1:3" ht="25.5">
       <c r="A11" s="3" t="s">
         <v>454</v>
       </c>
@@ -8308,7 +8495,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="25">
+    <row r="12" spans="1:3" ht="25.5">
       <c r="A12" s="3" t="s">
         <v>457</v>
       </c>
@@ -8319,7 +8506,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="25">
+    <row r="13" spans="1:3" ht="38.25">
       <c r="A13" s="3" t="s">
         <v>459</v>
       </c>
@@ -8330,7 +8517,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="25">
+    <row r="14" spans="1:3" ht="25.5">
       <c r="A14" s="3" t="s">
         <v>462</v>
       </c>
@@ -8341,7 +8528,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="25">
+    <row r="15" spans="1:3" ht="25.5">
       <c r="A15" s="8" t="s">
         <v>464</v>
       </c>
@@ -8352,7 +8539,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="12.5">
+    <row r="16" spans="1:3" ht="12.75">
       <c r="A16" s="3" t="s">
         <v>467</v>
       </c>
@@ -8363,7 +8550,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="25">
+    <row r="17" spans="1:3" ht="38.25">
       <c r="A17" s="8" t="s">
         <v>470</v>
       </c>
@@ -8374,7 +8561,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="25">
+    <row r="18" spans="1:3" ht="25.5">
       <c r="A18" s="3" t="s">
         <v>473</v>
       </c>
@@ -8385,7 +8572,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="25">
+    <row r="19" spans="1:3" ht="25.5">
       <c r="A19" s="8" t="s">
         <v>476</v>
       </c>
@@ -8396,7 +8583,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="25">
+    <row r="20" spans="1:3" ht="25.5">
       <c r="A20" s="8" t="s">
         <v>479</v>
       </c>
@@ -8407,7 +8594,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="12.5">
+    <row r="21" spans="1:3" ht="12.75">
       <c r="A21" s="8" t="s">
         <v>482</v>
       </c>
@@ -8418,7 +8605,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="12.5">
+    <row r="22" spans="1:3" ht="12.75">
       <c r="A22" s="8" t="s">
         <v>485</v>
       </c>
@@ -8429,7 +8616,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="12.5">
+    <row r="23" spans="1:3" ht="25.5">
       <c r="A23" s="3" t="s">
         <v>488</v>
       </c>
@@ -8440,7 +8627,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="12.5">
+    <row r="24" spans="1:3" ht="12.75">
       <c r="A24" s="3" t="s">
         <v>491</v>
       </c>
@@ -8451,7 +8638,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="37.5">
+    <row r="25" spans="1:3" ht="38.25">
       <c r="A25" s="3" t="s">
         <v>494</v>
       </c>
@@ -8462,7 +8649,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="50">
+    <row r="26" spans="1:3" ht="63.75">
       <c r="A26" s="3" t="s">
         <v>497</v>
       </c>
@@ -8473,7 +8660,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="62.5">
+    <row r="27" spans="1:3" ht="63.75">
       <c r="A27" s="8" t="s">
         <v>500</v>
       </c>
@@ -8484,7 +8671,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="37.5">
+    <row r="28" spans="1:3" ht="38.25">
       <c r="A28" s="8" t="s">
         <v>503</v>
       </c>
@@ -8495,7 +8682,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="37.5">
+    <row r="29" spans="1:3" ht="38.25">
       <c r="A29" s="3" t="s">
         <v>506</v>
       </c>
@@ -8506,7 +8693,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="25">
+    <row r="30" spans="1:3" ht="25.5">
       <c r="A30" s="8" t="s">
         <v>509</v>
       </c>
@@ -8517,7 +8704,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="25">
+    <row r="31" spans="1:3" ht="25.5">
       <c r="A31" s="3" t="s">
         <v>512</v>
       </c>
@@ -8528,7 +8715,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="25">
+    <row r="32" spans="1:3" ht="25.5">
       <c r="A32" s="3" t="s">
         <v>515</v>
       </c>
@@ -8539,7 +8726,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="25">
+    <row r="33" spans="1:3" ht="25.5">
       <c r="A33" s="3" t="s">
         <v>518</v>
       </c>
@@ -8550,7 +8737,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="12.5">
+    <row r="34" spans="1:3" ht="12.75">
       <c r="A34" s="3" t="s">
         <v>521</v>
       </c>
@@ -8561,7 +8748,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="12.5">
+    <row r="35" spans="1:3" ht="12.75">
       <c r="A35" s="3" t="s">
         <v>524</v>
       </c>
@@ -8572,7 +8759,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="25">
+    <row r="36" spans="1:3" ht="25.5">
       <c r="A36" s="3" t="s">
         <v>527</v>
       </c>
@@ -8583,7 +8770,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="25">
+    <row r="37" spans="1:3" ht="25.5">
       <c r="A37" s="3" t="s">
         <v>530</v>
       </c>
@@ -8594,7 +8781,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="25">
+    <row r="38" spans="1:3" ht="25.5">
       <c r="A38" s="3" t="s">
         <v>533</v>
       </c>
@@ -8605,7 +8792,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="12.5">
+    <row r="39" spans="1:3" ht="12.75">
       <c r="A39" s="3" t="s">
         <v>536</v>
       </c>
@@ -8616,7 +8803,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="12.5">
+    <row r="40" spans="1:3" ht="12.75">
       <c r="A40" s="3" t="s">
         <v>539</v>
       </c>
@@ -8627,7 +8814,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="12.5">
+    <row r="41" spans="1:3" ht="25.5">
       <c r="A41" s="3" t="s">
         <v>542</v>
       </c>
@@ -8638,7 +8825,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="37.5">
+    <row r="42" spans="1:3" ht="38.25">
       <c r="A42" s="3" t="s">
         <v>545</v>
       </c>
@@ -8649,7 +8836,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="37.5">
+    <row r="43" spans="1:3" ht="38.25">
       <c r="A43" s="3" t="s">
         <v>548</v>
       </c>
@@ -8660,7 +8847,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="25">
+    <row r="44" spans="1:3" ht="25.5">
       <c r="A44" s="3" t="s">
         <v>551</v>
       </c>
@@ -8671,7 +8858,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="37.5">
+    <row r="45" spans="1:3" ht="38.25">
       <c r="A45" s="3" t="s">
         <v>554</v>
       </c>
@@ -8682,7 +8869,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="25">
+    <row r="46" spans="1:3" ht="25.5">
       <c r="A46" s="3" t="s">
         <v>557</v>
       </c>
@@ -8693,7 +8880,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="37.5">
+    <row r="47" spans="1:3" ht="51">
       <c r="A47" s="3" t="s">
         <v>560</v>
       </c>
@@ -8704,7 +8891,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="37.5">
+    <row r="48" spans="1:3" ht="38.25">
       <c r="A48" s="3" t="s">
         <v>563</v>
       </c>
@@ -8715,7 +8902,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="12.5">
+    <row r="49" spans="1:3" ht="12.75">
       <c r="A49" s="8" t="s">
         <v>566</v>
       </c>
@@ -8726,7 +8913,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="25">
+    <row r="50" spans="1:3" ht="25.5">
       <c r="A50" s="8" t="s">
         <v>569</v>
       </c>
@@ -8737,7 +8924,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="37.5">
+    <row r="51" spans="1:3" ht="38.25">
       <c r="A51" s="3" t="s">
         <v>572</v>
       </c>
@@ -8748,7 +8935,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="12.5">
+    <row r="52" spans="1:3" ht="12.75">
       <c r="A52" s="3" t="s">
         <v>573</v>
       </c>
@@ -8759,7 +8946,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="50">
+    <row r="53" spans="1:3" ht="63.75">
       <c r="A53" s="8" t="s">
         <v>576</v>
       </c>
@@ -8770,7 +8957,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="25">
+    <row r="54" spans="1:3" ht="38.25">
       <c r="A54" s="8" t="s">
         <v>577</v>
       </c>
@@ -8781,7 +8968,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="12.5">
+    <row r="55" spans="1:3" ht="12.75">
       <c r="A55" s="8" t="s">
         <v>580</v>
       </c>
@@ -8792,7 +8979,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="12.5">
+    <row r="56" spans="1:3" ht="12.75">
       <c r="A56" s="8" t="s">
         <v>583</v>
       </c>
@@ -8803,7 +8990,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="25">
+    <row r="57" spans="1:3" ht="25.5">
       <c r="A57" s="3" t="s">
         <v>586</v>
       </c>
@@ -8814,7 +9001,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="62.5">
+    <row r="58" spans="1:3" ht="63.75">
       <c r="A58" s="3" t="s">
         <v>589</v>
       </c>
@@ -8825,7 +9012,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="25">
+    <row r="59" spans="1:3" ht="25.5">
       <c r="A59" s="3" t="s">
         <v>592</v>
       </c>
@@ -8836,7 +9023,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="37.5">
+    <row r="60" spans="1:3" ht="51">
       <c r="A60" s="3" t="s">
         <v>595</v>
       </c>
@@ -8847,7 +9034,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="62.5">
+    <row r="61" spans="1:3" ht="63.75">
       <c r="A61" s="3" t="s">
         <v>598</v>
       </c>
@@ -8858,7 +9045,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="25">
+    <row r="62" spans="1:3" ht="25.5">
       <c r="A62" s="3" t="s">
         <v>601</v>
       </c>
@@ -8869,7 +9056,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="62.5">
+    <row r="63" spans="1:3" ht="63.75">
       <c r="A63" s="8" t="s">
         <v>604</v>
       </c>
@@ -8880,7 +9067,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="62.5">
+    <row r="64" spans="1:3" ht="63.75">
       <c r="A64" s="8" t="s">
         <v>607</v>
       </c>
@@ -8891,7 +9078,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="50">
+    <row r="65" spans="1:3" ht="51">
       <c r="A65" s="8" t="s">
         <v>610</v>
       </c>
@@ -8902,7 +9089,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="25">
+    <row r="66" spans="1:3" ht="25.5">
       <c r="A66" s="8" t="s">
         <v>613</v>
       </c>
@@ -8913,7 +9100,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="37.5">
+    <row r="67" spans="1:3" ht="38.25">
       <c r="A67" s="3" t="s">
         <v>616</v>
       </c>
@@ -8924,7 +9111,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="50">
+    <row r="68" spans="1:3" ht="51">
       <c r="A68" s="8" t="s">
         <v>619</v>
       </c>
@@ -8935,7 +9122,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="12.5">
+    <row r="69" spans="1:3" ht="12.75">
       <c r="A69" s="3" t="s">
         <v>622</v>
       </c>
@@ -8946,7 +9133,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="12.5">
+    <row r="70" spans="1:3" ht="12.75">
       <c r="A70" s="3" t="s">
         <v>624</v>
       </c>
@@ -8957,7 +9144,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="25">
+    <row r="71" spans="1:3" ht="25.5">
       <c r="A71" s="3" t="s">
         <v>627</v>
       </c>
@@ -8968,7 +9155,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="25">
+    <row r="72" spans="1:3" ht="25.5">
       <c r="A72" s="3" t="s">
         <v>630</v>
       </c>
@@ -8979,7 +9166,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="12.5">
+    <row r="73" spans="1:3" ht="12.75">
       <c r="A73" s="3" t="s">
         <v>633</v>
       </c>
@@ -8990,7 +9177,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="25">
+    <row r="74" spans="1:3" ht="25.5">
       <c r="A74" s="3" t="s">
         <v>636</v>
       </c>
@@ -9001,7 +9188,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="25">
+    <row r="75" spans="1:3" ht="25.5">
       <c r="A75" s="3" t="s">
         <v>639</v>
       </c>
@@ -9012,7 +9199,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="25">
+    <row r="76" spans="1:3" ht="25.5">
       <c r="A76" s="3" t="s">
         <v>642</v>
       </c>
@@ -9023,7 +9210,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="12.5">
+    <row r="77" spans="1:3" ht="12.75">
       <c r="A77" s="3" t="s">
         <v>643</v>
       </c>
@@ -9034,7 +9221,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="25">
+    <row r="78" spans="1:3" ht="25.5">
       <c r="A78" s="3" t="s">
         <v>646</v>
       </c>
@@ -9045,7 +9232,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="12.5">
+    <row r="79" spans="1:3" ht="12.75">
       <c r="A79" s="3" t="s">
         <v>649</v>
       </c>
@@ -9056,7 +9243,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="37.5">
+    <row r="80" spans="1:3" ht="38.25">
       <c r="A80" s="3" t="s">
         <v>652</v>
       </c>
@@ -9067,7 +9254,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="25">
+    <row r="81" spans="1:3" ht="25.5">
       <c r="A81" s="3" t="s">
         <v>655</v>
       </c>
@@ -9078,7 +9265,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="25">
+    <row r="82" spans="1:3" ht="25.5">
       <c r="A82" s="3" t="s">
         <v>658</v>
       </c>
@@ -9089,7 +9276,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="12.5">
+    <row r="83" spans="1:3" ht="12.75">
       <c r="A83" s="3" t="s">
         <v>661</v>
       </c>
@@ -9100,7 +9287,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="12.5">
+    <row r="84" spans="1:3" ht="12.75">
       <c r="A84" s="3" t="s">
         <v>664</v>
       </c>
@@ -9111,7 +9298,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="37.5">
+    <row r="85" spans="1:3" ht="38.25">
       <c r="A85" s="3" t="s">
         <v>667</v>
       </c>
@@ -9122,7 +9309,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="37.5">
+    <row r="86" spans="1:3" ht="38.25">
       <c r="A86" s="3" t="s">
         <v>670</v>
       </c>
@@ -9133,7 +9320,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="25">
+    <row r="87" spans="1:3" ht="25.5">
       <c r="A87" s="3" t="s">
         <v>673</v>
       </c>
@@ -9144,7 +9331,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="12.5">
+    <row r="88" spans="1:3" ht="12.75">
       <c r="A88" s="3" t="s">
         <v>676</v>
       </c>
@@ -9155,7 +9342,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="37.5">
+    <row r="89" spans="1:3" ht="38.25">
       <c r="A89" s="3" t="s">
         <v>679</v>
       </c>
@@ -9166,7 +9353,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="25">
+    <row r="90" spans="1:3" ht="25.5">
       <c r="A90" s="3" t="s">
         <v>682</v>
       </c>
@@ -9177,7 +9364,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="75">
+    <row r="91" spans="1:3" ht="76.5">
       <c r="A91" s="8" t="s">
         <v>685</v>
       </c>
@@ -9188,7 +9375,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="62.5">
+    <row r="92" spans="1:3" ht="63.75">
       <c r="A92" s="8" t="s">
         <v>688</v>
       </c>
@@ -9199,7 +9386,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="37.5">
+    <row r="93" spans="1:3" ht="38.25">
       <c r="A93" s="3" t="s">
         <v>691</v>
       </c>
@@ -9210,7 +9397,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="62.5">
+    <row r="94" spans="1:3" ht="63.75">
       <c r="A94" s="3" t="s">
         <v>694</v>
       </c>
@@ -9221,7 +9408,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="37.5">
+    <row r="95" spans="1:3" ht="38.25">
       <c r="A95" s="3" t="s">
         <v>697</v>
       </c>
@@ -9232,7 +9419,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="62.5">
+    <row r="96" spans="1:3" ht="63.75">
       <c r="A96" s="3" t="s">
         <v>700</v>
       </c>
@@ -9243,7 +9430,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="37.5">
+    <row r="97" spans="1:3" ht="38.25">
       <c r="A97" s="8" t="s">
         <v>701</v>
       </c>
@@ -9254,7 +9441,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="25">
+    <row r="98" spans="1:3" ht="25.5">
       <c r="A98" s="8" t="s">
         <v>704</v>
       </c>
@@ -9265,7 +9452,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="25">
+    <row r="99" spans="1:3" ht="25.5">
       <c r="A99" s="3" t="s">
         <v>707</v>
       </c>
@@ -9276,7 +9463,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="37.5">
+    <row r="100" spans="1:3" ht="38.25">
       <c r="A100" s="3" t="s">
         <v>710</v>
       </c>
@@ -9287,7 +9474,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="37.5">
+    <row r="101" spans="1:3" ht="51">
       <c r="A101" s="3" t="s">
         <v>713</v>
       </c>
@@ -9298,7 +9485,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="12.5">
+    <row r="102" spans="1:3" ht="25.5">
       <c r="A102" s="3" t="s">
         <v>716</v>
       </c>
@@ -9309,7 +9496,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="25">
+    <row r="103" spans="1:3" ht="25.5">
       <c r="A103" s="3" t="s">
         <v>719</v>
       </c>
@@ -9320,7 +9507,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="25">
+    <row r="104" spans="1:3" ht="25.5">
       <c r="A104" s="3" t="s">
         <v>722</v>
       </c>
@@ -9331,7 +9518,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="12.5">
+    <row r="105" spans="1:3" ht="12.75">
       <c r="A105" s="3" t="s">
         <v>725</v>
       </c>
@@ -9342,7 +9529,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="25">
+    <row r="106" spans="1:3" ht="25.5">
       <c r="A106" s="3" t="s">
         <v>727</v>
       </c>
@@ -9369,12 +9556,12 @@
       <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.26953125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="30.453125" customWidth="1"/>
-    <col min="2" max="2" width="59.08984375" customWidth="1"/>
-    <col min="3" max="3" width="66.453125" customWidth="1"/>
-    <col min="4" max="22" width="14.453125" customWidth="1"/>
+    <col min="1" max="1" width="30.42578125" customWidth="1"/>
+    <col min="2" max="2" width="59.140625" customWidth="1"/>
+    <col min="3" max="3" width="66.42578125" customWidth="1"/>
+    <col min="4" max="22" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" customHeight="1">
@@ -14488,19 +14675,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.26953125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="53" customWidth="1"/>
-    <col min="2" max="2" width="76.453125" customWidth="1"/>
-    <col min="3" max="3" width="76.08984375" customWidth="1"/>
+    <col min="2" max="2" width="76.42578125" customWidth="1"/>
+    <col min="3" max="3" width="76.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="12.5">
+    <row r="1" spans="1:3" ht="12.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -14511,7 +14698,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="75">
+    <row r="2" spans="1:3" ht="76.5">
       <c r="A2" s="1" t="s">
         <v>729</v>
       </c>
@@ -14522,7 +14709,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="50">
+    <row r="3" spans="1:3" ht="51">
       <c r="A3" s="1" t="s">
         <v>732</v>
       </c>
@@ -14533,7 +14720,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="50">
+    <row r="4" spans="1:3" ht="51">
       <c r="A4" s="1" t="s">
         <v>735</v>
       </c>
@@ -14544,7 +14731,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="62.5">
+    <row r="5" spans="1:3" ht="63.75">
       <c r="A5" s="1" t="s">
         <v>738</v>
       </c>
@@ -14555,7 +14742,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="62.5">
+    <row r="6" spans="1:3" ht="63.75">
       <c r="A6" s="1" t="s">
         <v>741</v>
       </c>
@@ -14566,7 +14753,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="62.5">
+    <row r="7" spans="1:3" ht="63.75">
       <c r="A7" s="1" t="s">
         <v>744</v>
       </c>
@@ -14577,7 +14764,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="50">
+    <row r="8" spans="1:3" ht="51">
       <c r="A8" s="1" t="s">
         <v>747</v>
       </c>
@@ -14588,7 +14775,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="75">
+    <row r="9" spans="1:3" ht="76.5">
       <c r="A9" s="1" t="s">
         <v>750</v>
       </c>
@@ -14599,7 +14786,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="75">
+    <row r="10" spans="1:3" ht="76.5">
       <c r="A10" s="1" t="s">
         <v>753</v>
       </c>
@@ -14610,7 +14797,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="50">
+    <row r="11" spans="1:3" ht="51">
       <c r="A11" s="1" t="s">
         <v>756</v>
       </c>
@@ -14621,7 +14808,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="50">
+    <row r="12" spans="1:3" ht="51">
       <c r="A12" s="1" t="s">
         <v>759</v>
       </c>
@@ -14632,7 +14819,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="50">
+    <row r="13" spans="1:3" ht="63.75">
       <c r="A13" s="1" t="s">
         <v>762</v>
       </c>
@@ -14643,7 +14830,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="50">
+    <row r="14" spans="1:3" ht="51">
       <c r="A14" s="1" t="s">
         <v>765</v>
       </c>
@@ -14654,7 +14841,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="50">
+    <row r="15" spans="1:3" ht="51">
       <c r="A15" s="1" t="s">
         <v>767</v>
       </c>
@@ -14665,7 +14852,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="62.5">
+    <row r="16" spans="1:3" ht="63.75">
       <c r="A16" s="1" t="s">
         <v>770</v>
       </c>
@@ -14676,7 +14863,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="37.5">
+    <row r="17" spans="1:3" ht="38.25">
       <c r="A17" s="1" t="s">
         <v>773</v>
       </c>
@@ -14687,7 +14874,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="50">
+    <row r="18" spans="1:3" ht="51">
       <c r="A18" s="3" t="s">
         <v>776</v>
       </c>
@@ -14698,7 +14885,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="50">
+    <row r="19" spans="1:3" ht="63.75">
       <c r="A19" s="3" t="s">
         <v>779</v>
       </c>
@@ -14709,7 +14896,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="62.5">
+    <row r="20" spans="1:3" ht="63.75">
       <c r="A20" s="3" t="s">
         <v>782</v>
       </c>
@@ -14720,7 +14907,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="62.5">
+    <row r="21" spans="1:3" ht="76.5">
       <c r="A21" s="3" t="s">
         <v>785</v>
       </c>
@@ -14731,7 +14918,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="37.5">
+    <row r="22" spans="1:3" ht="38.25">
       <c r="A22" s="3" t="s">
         <v>788</v>
       </c>
@@ -14742,7 +14929,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="50">
+    <row r="23" spans="1:3" ht="51">
       <c r="A23" s="3" t="s">
         <v>791</v>
       </c>
@@ -14753,7 +14940,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="62.5">
+    <row r="24" spans="1:3" ht="63.75">
       <c r="A24" s="3" t="s">
         <v>794</v>
       </c>
@@ -14764,7 +14951,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="37.5">
+    <row r="25" spans="1:3" ht="38.25">
       <c r="A25" s="3" t="s">
         <v>796</v>
       </c>
@@ -14775,7 +14962,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="50">
+    <row r="26" spans="1:3" ht="51">
       <c r="A26" s="9" t="s">
         <v>799</v>
       </c>
@@ -14786,7 +14973,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="50">
+    <row r="27" spans="1:3" ht="51">
       <c r="A27" s="9" t="s">
         <v>802</v>
       </c>
@@ -14797,7 +14984,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="37.5">
+    <row r="28" spans="1:3" ht="38.25">
       <c r="A28" s="9" t="s">
         <v>805</v>
       </c>
@@ -14808,7 +14995,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="62.5">
+    <row r="29" spans="1:3" ht="63.75">
       <c r="A29" s="9" t="s">
         <v>808</v>
       </c>
@@ -14819,7 +15006,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="75">
+    <row r="30" spans="1:3" ht="76.5">
       <c r="A30" s="7" t="s">
         <v>811</v>
       </c>
@@ -14830,7 +15017,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="62.5">
+    <row r="31" spans="1:3" ht="63.75">
       <c r="A31" s="7" t="s">
         <v>814</v>
       </c>
@@ -14841,7 +15028,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="50">
+    <row r="32" spans="1:3" ht="51">
       <c r="A32" s="7" t="s">
         <v>817</v>
       </c>
@@ -14852,7 +15039,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="62.5">
+    <row r="33" spans="1:3" ht="63.75">
       <c r="A33" s="7" t="s">
         <v>820</v>
       </c>
@@ -14863,7 +15050,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="62.5">
+    <row r="34" spans="1:3" ht="63.75">
       <c r="A34" s="7" t="s">
         <v>823</v>
       </c>
@@ -14874,7 +15061,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="50">
+    <row r="35" spans="1:3" ht="51">
       <c r="A35" s="7" t="s">
         <v>826</v>
       </c>
@@ -14885,7 +15072,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="50">
+    <row r="36" spans="1:3" ht="51">
       <c r="A36" s="7" t="s">
         <v>828</v>
       </c>
@@ -14896,7 +15083,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="62.5">
+    <row r="37" spans="1:3" ht="76.5">
       <c r="A37" s="7" t="s">
         <v>831</v>
       </c>
@@ -14907,7 +15094,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="50">
+    <row r="38" spans="1:3" ht="51">
       <c r="A38" s="1" t="s">
         <v>834</v>
       </c>
@@ -14918,7 +15105,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="50">
+    <row r="39" spans="1:3" ht="51">
       <c r="A39" s="29" t="s">
         <v>835</v>
       </c>
@@ -14929,7 +15116,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="37.5">
+    <row r="40" spans="1:3" ht="38.25">
       <c r="A40" s="29" t="s">
         <v>836</v>
       </c>
@@ -14940,7 +15127,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="62.5">
+    <row r="41" spans="1:3" ht="63.75">
       <c r="A41" s="30" t="s">
         <v>839</v>
       </c>
@@ -14951,7 +15138,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="37.5">
+    <row r="42" spans="1:3" ht="38.25">
       <c r="A42" s="29" t="s">
         <v>841</v>
       </c>
@@ -14962,7 +15149,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="50">
+    <row r="43" spans="1:3" ht="63.75">
       <c r="A43" s="4" t="s">
         <v>844</v>
       </c>
@@ -14973,7 +15160,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="62.5">
+    <row r="44" spans="1:3" ht="76.5">
       <c r="A44" s="4" t="s">
         <v>847</v>
       </c>
@@ -14984,7 +15171,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="50">
+    <row r="45" spans="1:3" ht="51">
       <c r="A45" s="4" t="s">
         <v>849</v>
       </c>
@@ -14995,7 +15182,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="62.5">
+    <row r="46" spans="1:3" ht="63.75">
       <c r="A46" s="4" t="s">
         <v>850</v>
       </c>
@@ -15006,7 +15193,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="50">
+    <row r="47" spans="1:3" ht="51">
       <c r="A47" s="4" t="s">
         <v>853</v>
       </c>
@@ -15017,7 +15204,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="62.5">
+    <row r="48" spans="1:3" ht="63.75">
       <c r="A48" s="4" t="s">
         <v>854</v>
       </c>
@@ -15028,7 +15215,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="50">
+    <row r="49" spans="1:3" ht="51">
       <c r="A49" s="4" t="s">
         <v>857</v>
       </c>
@@ -15039,7 +15226,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="50">
+    <row r="50" spans="1:3" ht="51">
       <c r="A50" s="4" t="s">
         <v>859</v>
       </c>
@@ -15050,7 +15237,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="62.5">
+    <row r="51" spans="1:3" ht="63.75">
       <c r="A51" s="4" t="s">
         <v>862</v>
       </c>
@@ -15061,7 +15248,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="50">
+    <row r="52" spans="1:3" ht="51">
       <c r="A52" s="4" t="s">
         <v>865</v>
       </c>
@@ -15072,7 +15259,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="62.5">
+    <row r="53" spans="1:3" ht="63.75">
       <c r="A53" s="4" t="s">
         <v>868</v>
       </c>
@@ -15083,7 +15270,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="62.5">
+    <row r="54" spans="1:3" ht="63.75">
       <c r="A54" s="4" t="s">
         <v>871</v>
       </c>
@@ -15094,7 +15281,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="62.5">
+    <row r="55" spans="1:3" ht="63.75">
       <c r="A55" s="4" t="s">
         <v>873</v>
       </c>
@@ -15105,7 +15292,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="62.5">
+    <row r="56" spans="1:3" ht="63.75">
       <c r="A56" s="4" t="s">
         <v>874</v>
       </c>
@@ -15116,7 +15303,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="50">
+    <row r="57" spans="1:3" ht="63.75">
       <c r="A57" s="4" t="s">
         <v>877</v>
       </c>
@@ -15127,7 +15314,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="50">
+    <row r="58" spans="1:3" ht="51">
       <c r="A58" s="4" t="s">
         <v>880</v>
       </c>
@@ -15138,7 +15325,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="62.5">
+    <row r="59" spans="1:3" ht="63.75">
       <c r="A59" s="4" t="s">
         <v>883</v>
       </c>
@@ -15149,7 +15336,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="37.5">
+    <row r="60" spans="1:3" ht="38.25">
       <c r="A60" s="4" t="s">
         <v>886</v>
       </c>
@@ -15160,7 +15347,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="50">
+    <row r="61" spans="1:3" ht="51">
       <c r="A61" s="4" t="s">
         <v>889</v>
       </c>
@@ -15171,7 +15358,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="62.5">
+    <row r="62" spans="1:3" ht="76.5">
       <c r="A62" s="4" t="s">
         <v>892</v>
       </c>
@@ -15182,7 +15369,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="50">
+    <row r="63" spans="1:3" ht="51">
       <c r="A63" s="4" t="s">
         <v>895</v>
       </c>
@@ -15193,7 +15380,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="62.5">
+    <row r="64" spans="1:3" ht="63.75">
       <c r="A64" s="4" t="s">
         <v>898</v>
       </c>
@@ -15204,7 +15391,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="50">
+    <row r="65" spans="1:3" ht="51">
       <c r="A65" s="4" t="s">
         <v>901</v>
       </c>
@@ -15215,7 +15402,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="62.5">
+    <row r="66" spans="1:3" ht="63.75">
       <c r="A66" s="4" t="s">
         <v>904</v>
       </c>
@@ -15226,7 +15413,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="50">
+    <row r="67" spans="1:3" ht="51">
       <c r="A67" s="4" t="s">
         <v>907</v>
       </c>
@@ -15237,7 +15424,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="75">
+    <row r="68" spans="1:3" ht="76.5">
       <c r="A68" s="4" t="s">
         <v>909</v>
       </c>
@@ -15257,17 +15444,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.26953125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="17.7265625" customWidth="1"/>
-    <col min="2" max="2" width="41.08984375" customWidth="1"/>
-    <col min="3" max="3" width="46.453125" customWidth="1"/>
-    <col min="4" max="22" width="14.453125" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="41.140625" customWidth="1"/>
+    <col min="3" max="3" width="46.42578125" customWidth="1"/>
+    <col min="4" max="22" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" customHeight="1">
@@ -15349,7 +15536,7 @@
     </row>
     <row r="8" spans="1:3" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>419</v>
@@ -15382,7 +15569,7 @@
     </row>
     <row r="11" spans="1:3" ht="15.75" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>425</v>

--- a/stm-unity/Assets/Editor/Localization/SportsTeamManagerScenarioLocalization.xlsx
+++ b/stm-unity/Assets/Editor/Localization/SportsTeamManagerScenarioLocalization.xlsx
@@ -2975,10 +2975,10 @@
     <t>Neutral</t>
   </si>
   <si>
-    <t>StrongAgree</t>
-  </si>
-  <si>
-    <t>StrongDisagree</t>
+    <t>StronglyDisagree</t>
+  </si>
+  <si>
+    <t>StronglyAgree</t>
   </si>
 </sst>
 </file>
@@ -3329,6 +3329,54 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>971550</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="6353175" cy="6353175"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="r" b="b"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3456,6 +3504,54 @@
           <a:ahLst/>
           <a:cxnLst/>
           <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="6353175" cy="6353175"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="r" b="b"/>
           <a:pathLst/>
         </a:custGeom>
         <a:solidFill>
@@ -3617,6 +3713,54 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>1171575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="AutoShape 7"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="6353175" cy="6353175"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="r" b="b"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3744,6 +3888,54 @@
           <a:ahLst/>
           <a:cxnLst/>
           <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2438400</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="AutoShape 5"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="6353175" cy="6353175"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="r" b="b"/>
           <a:pathLst/>
         </a:custGeom>
         <a:solidFill>
@@ -4019,7 +4211,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -15446,7 +15638,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
+      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1"/>
@@ -15536,7 +15728,7 @@
     </row>
     <row r="8" spans="1:3" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>419</v>
@@ -15569,7 +15761,7 @@
     </row>
     <row r="11" spans="1:3" ht="15.75" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>425</v>
